--- a/rfuse/Archive/로컬_개별실험_v2/merged_summary.xlsx
+++ b/rfuse/Archive/로컬_개별실험_v2/merged_summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e3bbcfeab54bef5/ドキュメント/GitHub/ldy/rfuse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e3bbcfeab54bef5/ドキュメント/GitHub/ldy/rfuse/Archive/로컬_개별실험_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="20" documentId="11_285707B101E7A80FCEFB9E31F0DADAF43C81A9D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{352AB8FD-DE88-4B63-8AB2-6D0F6E9845EE}"/>
@@ -7246,6 +7246,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -7535,7 +7539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
